--- a/data/pca/factorExposure/factorExposure_2012-02-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01485945703479706</v>
+        <v>0.0149789787954563</v>
       </c>
       <c r="C2">
-        <v>0.02971769713118129</v>
+        <v>0.02534429928603343</v>
       </c>
       <c r="D2">
-        <v>0.006322311114510641</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.00635517596381533</v>
+      </c>
+      <c r="E2">
+        <v>0.01260819057152937</v>
+      </c>
+      <c r="F2">
+        <v>0.01226379561764147</v>
+      </c>
+      <c r="G2">
+        <v>-0.01657435774400967</v>
+      </c>
+      <c r="H2">
+        <v>-0.0460375158711244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07213653711179663</v>
+        <v>0.08687535516440061</v>
       </c>
       <c r="C4">
-        <v>0.0504288024936272</v>
+        <v>0.037567672575226</v>
       </c>
       <c r="D4">
-        <v>0.08219373004033405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06444906353201654</v>
+      </c>
+      <c r="E4">
+        <v>0.01547313875833195</v>
+      </c>
+      <c r="F4">
+        <v>0.0312241178623019</v>
+      </c>
+      <c r="G4">
+        <v>-0.004489599048738926</v>
+      </c>
+      <c r="H4">
+        <v>0.0400082648902849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1085334802817165</v>
+        <v>0.1194510286309686</v>
       </c>
       <c r="C6">
-        <v>0.05491599596281838</v>
+        <v>0.03448194091899576</v>
       </c>
       <c r="D6">
-        <v>-0.0006397161267927249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01454760933437933</v>
+      </c>
+      <c r="E6">
+        <v>-0.01064711669970802</v>
+      </c>
+      <c r="F6">
+        <v>0.05338169276549471</v>
+      </c>
+      <c r="G6">
+        <v>-0.03404967540152889</v>
+      </c>
+      <c r="H6">
+        <v>-0.119093368463614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04959195090104076</v>
+        <v>0.06366270742402427</v>
       </c>
       <c r="C7">
-        <v>0.02802014476520128</v>
+        <v>0.02002417845662329</v>
       </c>
       <c r="D7">
-        <v>0.04748856062574618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04584995129027439</v>
+      </c>
+      <c r="E7">
+        <v>0.03661919543007219</v>
+      </c>
+      <c r="F7">
+        <v>0.03369621035506686</v>
+      </c>
+      <c r="G7">
+        <v>0.03714313433500333</v>
+      </c>
+      <c r="H7">
+        <v>0.003634480421029398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0382522936935779</v>
+        <v>0.04124978000993065</v>
       </c>
       <c r="C8">
-        <v>0.01411256608171569</v>
+        <v>0.009557161195831245</v>
       </c>
       <c r="D8">
-        <v>0.05889837361692866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02510757764230566</v>
+      </c>
+      <c r="E8">
+        <v>0.03455677136252633</v>
+      </c>
+      <c r="F8">
+        <v>0.04956006452796788</v>
+      </c>
+      <c r="G8">
+        <v>-0.0557577210023938</v>
+      </c>
+      <c r="H8">
+        <v>-0.01144212864546212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06656887875094254</v>
+        <v>0.07836934924310254</v>
       </c>
       <c r="C9">
-        <v>0.04162038458153316</v>
+        <v>0.02862175090221171</v>
       </c>
       <c r="D9">
-        <v>0.07223450916359446</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06338763253084337</v>
+      </c>
+      <c r="E9">
+        <v>0.04061914669081814</v>
+      </c>
+      <c r="F9">
+        <v>0.02802528512177109</v>
+      </c>
+      <c r="G9">
+        <v>-0.007392298725777713</v>
+      </c>
+      <c r="H9">
+        <v>0.04265418603934753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02829520128721986</v>
+        <v>0.03307373782874577</v>
       </c>
       <c r="C10">
-        <v>0.03263886390596187</v>
+        <v>0.04369188073643394</v>
       </c>
       <c r="D10">
-        <v>-0.1772658027982059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1736524745459642</v>
+      </c>
+      <c r="E10">
+        <v>0.04557625183948855</v>
+      </c>
+      <c r="F10">
+        <v>0.04446272705094536</v>
+      </c>
+      <c r="G10">
+        <v>0.02850260867734894</v>
+      </c>
+      <c r="H10">
+        <v>-0.04697033863466064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07135158859458877</v>
+        <v>0.07653117849352779</v>
       </c>
       <c r="C11">
-        <v>0.04636655667794632</v>
+        <v>0.02763266570040398</v>
       </c>
       <c r="D11">
-        <v>0.05915239861882647</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06231731440703295</v>
+      </c>
+      <c r="E11">
+        <v>1.601331752230436e-05</v>
+      </c>
+      <c r="F11">
+        <v>0.02812089865621328</v>
+      </c>
+      <c r="G11">
+        <v>0.002910695343146223</v>
+      </c>
+      <c r="H11">
+        <v>0.08189982083714227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05855761098460854</v>
+        <v>0.06776034098320341</v>
       </c>
       <c r="C12">
-        <v>0.05234988738552377</v>
+        <v>0.03738943225598394</v>
       </c>
       <c r="D12">
-        <v>0.04357734787451942</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04843515325110522</v>
+      </c>
+      <c r="E12">
+        <v>0.0141407539337091</v>
+      </c>
+      <c r="F12">
+        <v>0.01853482315914227</v>
+      </c>
+      <c r="G12">
+        <v>-0.002728861498626445</v>
+      </c>
+      <c r="H12">
+        <v>0.03851697697832076</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0605843147192663</v>
+        <v>0.06514080089008548</v>
       </c>
       <c r="C13">
-        <v>0.04010241706931287</v>
+        <v>0.02556626673081118</v>
       </c>
       <c r="D13">
-        <v>0.06039944806342005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04242872197502259</v>
+      </c>
+      <c r="E13">
+        <v>0.01729444858616271</v>
+      </c>
+      <c r="F13">
+        <v>0.005331521970411215</v>
+      </c>
+      <c r="G13">
+        <v>0.008522212694228587</v>
+      </c>
+      <c r="H13">
+        <v>0.0380956351576179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0330571105890782</v>
+        <v>0.04109597471887402</v>
       </c>
       <c r="C14">
-        <v>0.03102450713224499</v>
+        <v>0.02712946835118804</v>
       </c>
       <c r="D14">
-        <v>0.001266085994990729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.007369170164568586</v>
+      </c>
+      <c r="E14">
+        <v>0.03386377321839228</v>
+      </c>
+      <c r="F14">
+        <v>0.008683570457481127</v>
+      </c>
+      <c r="G14">
+        <v>-0.004730238615367068</v>
+      </c>
+      <c r="H14">
+        <v>0.05605939677693102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04027008192664827</v>
+        <v>0.04032896612669382</v>
       </c>
       <c r="C15">
-        <v>0.01074722652669065</v>
+        <v>0.003698834506715458</v>
       </c>
       <c r="D15">
-        <v>0.01732337157179577</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003707155744844903</v>
+      </c>
+      <c r="E15">
+        <v>0.04046518600389062</v>
+      </c>
+      <c r="F15">
+        <v>-0.00834223405941064</v>
+      </c>
+      <c r="G15">
+        <v>-0.02437380598534973</v>
+      </c>
+      <c r="H15">
+        <v>0.03610427815870866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06066048230237558</v>
+        <v>0.07054562243274304</v>
       </c>
       <c r="C16">
-        <v>0.04196523167766242</v>
+        <v>0.02796514020449035</v>
       </c>
       <c r="D16">
-        <v>0.04706806802608158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06216121450455576</v>
+      </c>
+      <c r="E16">
+        <v>0.008560189076331567</v>
+      </c>
+      <c r="F16">
+        <v>0.02402923685671458</v>
+      </c>
+      <c r="G16">
+        <v>0.004570330036051916</v>
+      </c>
+      <c r="H16">
+        <v>0.0501397740303109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06304030441170767</v>
+        <v>0.06406491168505343</v>
       </c>
       <c r="C20">
-        <v>0.02987387913181781</v>
+        <v>0.01365293697355193</v>
       </c>
       <c r="D20">
-        <v>0.04931229726798884</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0374727646550055</v>
+      </c>
+      <c r="E20">
+        <v>0.03226930585148884</v>
+      </c>
+      <c r="F20">
+        <v>0.01823974912921862</v>
+      </c>
+      <c r="G20">
+        <v>-0.0128674555436501</v>
+      </c>
+      <c r="H20">
+        <v>0.03942167330934036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02627686526895326</v>
+        <v>0.02580710130500481</v>
       </c>
       <c r="C21">
-        <v>-0.002722024896033506</v>
+        <v>-0.009360985873252049</v>
       </c>
       <c r="D21">
-        <v>0.02528104589346664</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02587114486151301</v>
+      </c>
+      <c r="E21">
+        <v>0.03890620799288462</v>
+      </c>
+      <c r="F21">
+        <v>-0.01629986590785851</v>
+      </c>
+      <c r="G21">
+        <v>-0.007524338784108181</v>
+      </c>
+      <c r="H21">
+        <v>-0.04625521934498967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07836471506442699</v>
+        <v>0.07263648412206988</v>
       </c>
       <c r="C22">
-        <v>0.06220383560993645</v>
+        <v>0.04229621588950598</v>
       </c>
       <c r="D22">
-        <v>0.09888631570955006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06534756745386508</v>
+      </c>
+      <c r="E22">
+        <v>0.5598218999001373</v>
+      </c>
+      <c r="F22">
+        <v>-0.252755780464629</v>
+      </c>
+      <c r="G22">
+        <v>0.07604217990536019</v>
+      </c>
+      <c r="H22">
+        <v>-0.150286111597182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07933799628949513</v>
+        <v>0.07334731812240583</v>
       </c>
       <c r="C23">
-        <v>0.06109668517228975</v>
+        <v>0.04091044615526404</v>
       </c>
       <c r="D23">
-        <v>0.1004780693840879</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06639903358666853</v>
+      </c>
+      <c r="E23">
+        <v>0.5590161590027913</v>
+      </c>
+      <c r="F23">
+        <v>-0.2514395612196453</v>
+      </c>
+      <c r="G23">
+        <v>0.0746824481649149</v>
+      </c>
+      <c r="H23">
+        <v>-0.1455964010542395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07165954185008459</v>
+        <v>0.08007259211088572</v>
       </c>
       <c r="C24">
-        <v>0.05114488358890047</v>
+        <v>0.03407939104129935</v>
       </c>
       <c r="D24">
-        <v>0.05998873964482004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05971475201438291</v>
+      </c>
+      <c r="E24">
+        <v>0.01742579195052877</v>
+      </c>
+      <c r="F24">
+        <v>0.03341670124832866</v>
+      </c>
+      <c r="G24">
+        <v>-0.01275941583201788</v>
+      </c>
+      <c r="H24">
+        <v>0.05068745066061143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07075459061184292</v>
+        <v>0.07777165126366145</v>
       </c>
       <c r="C25">
-        <v>0.0561634159129634</v>
+        <v>0.03832427362705007</v>
       </c>
       <c r="D25">
-        <v>0.06566097250654934</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05266499523944364</v>
+      </c>
+      <c r="E25">
+        <v>0.02181514032156799</v>
+      </c>
+      <c r="F25">
+        <v>0.02261376900729786</v>
+      </c>
+      <c r="G25">
+        <v>-0.01919271539447973</v>
+      </c>
+      <c r="H25">
+        <v>0.05376863216606448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04542389833133091</v>
+        <v>0.04792384601432529</v>
       </c>
       <c r="C26">
-        <v>0.01018968805873058</v>
+        <v>0.002480702912277752</v>
       </c>
       <c r="D26">
-        <v>0.01309535452891995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01770814347160747</v>
+      </c>
+      <c r="E26">
+        <v>0.05584306243399457</v>
+      </c>
+      <c r="F26">
+        <v>0.01826722508620647</v>
+      </c>
+      <c r="G26">
+        <v>0.009821570612152133</v>
+      </c>
+      <c r="H26">
+        <v>0.05035475899562496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05237769204028968</v>
+        <v>0.0614793380221162</v>
       </c>
       <c r="C28">
-        <v>0.07423792113909886</v>
+        <v>0.08671749139156244</v>
       </c>
       <c r="D28">
-        <v>-0.3153665057499426</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.3096510153632958</v>
+      </c>
+      <c r="E28">
+        <v>0.02715282841489964</v>
+      </c>
+      <c r="F28">
+        <v>0.05556096604231232</v>
+      </c>
+      <c r="G28">
+        <v>-0.03311993834388982</v>
+      </c>
+      <c r="H28">
+        <v>-0.04028599438479098</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04094200025263102</v>
+        <v>0.0489360067005696</v>
       </c>
       <c r="C29">
-        <v>0.03028439971958696</v>
+        <v>0.02549168671325265</v>
       </c>
       <c r="D29">
-        <v>0.005436341629508222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.006423907932750527</v>
+      </c>
+      <c r="E29">
+        <v>0.05717264018481282</v>
+      </c>
+      <c r="F29">
+        <v>-0.002294671546863609</v>
+      </c>
+      <c r="G29">
+        <v>0.01001632191423746</v>
+      </c>
+      <c r="H29">
+        <v>0.07402489082365234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1247038582004635</v>
+        <v>0.1308853708723733</v>
       </c>
       <c r="C30">
-        <v>0.09162357373926715</v>
+        <v>0.06472166525183359</v>
       </c>
       <c r="D30">
-        <v>0.1135067956518468</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.06619345135411223</v>
+      </c>
+      <c r="E30">
+        <v>0.08116397414161776</v>
+      </c>
+      <c r="F30">
+        <v>-0.02192976252140869</v>
+      </c>
+      <c r="G30">
+        <v>-0.08214439184454073</v>
+      </c>
+      <c r="H30">
+        <v>-0.04402066562904031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0431253410961431</v>
+        <v>0.04903335131367604</v>
       </c>
       <c r="C31">
-        <v>0.02244206994607714</v>
+        <v>0.01428242266970917</v>
       </c>
       <c r="D31">
-        <v>0.02517894529284388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02626592259149104</v>
+      </c>
+      <c r="E31">
+        <v>0.02684719501013223</v>
+      </c>
+      <c r="F31">
+        <v>0.007902550329452349</v>
+      </c>
+      <c r="G31">
+        <v>0.02796270943910079</v>
+      </c>
+      <c r="H31">
+        <v>0.06142055291612063</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0386295986894127</v>
+        <v>0.0391538254945709</v>
       </c>
       <c r="C32">
-        <v>0.02362629613022903</v>
+        <v>0.01716452353106136</v>
       </c>
       <c r="D32">
-        <v>0.02409504736603842</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01244067550237421</v>
+      </c>
+      <c r="E32">
+        <v>0.06936118640500279</v>
+      </c>
+      <c r="F32">
+        <v>-0.02430875472969748</v>
+      </c>
+      <c r="G32">
+        <v>-0.01955089140587805</v>
+      </c>
+      <c r="H32">
+        <v>0.07758760204943375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08192259900276125</v>
+        <v>0.09566493664830884</v>
       </c>
       <c r="C33">
-        <v>0.04409562371644831</v>
+        <v>0.02833600703844934</v>
       </c>
       <c r="D33">
-        <v>0.06225710742379253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04670129370343834</v>
+      </c>
+      <c r="E33">
+        <v>0.01470202289438429</v>
+      </c>
+      <c r="F33">
+        <v>0.005075995882347733</v>
+      </c>
+      <c r="G33">
+        <v>0.005723927630707926</v>
+      </c>
+      <c r="H33">
+        <v>0.05363611922616498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05631798809869649</v>
+        <v>0.06270510529434396</v>
       </c>
       <c r="C34">
-        <v>0.0278567705003125</v>
+        <v>0.01405409404333268</v>
       </c>
       <c r="D34">
-        <v>0.05549285025671185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05308710041788414</v>
+      </c>
+      <c r="E34">
+        <v>0.009826831236961479</v>
+      </c>
+      <c r="F34">
+        <v>0.01637691617728303</v>
+      </c>
+      <c r="G34">
+        <v>0.001262836787401718</v>
+      </c>
+      <c r="H34">
+        <v>0.05514176656699665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03772362142288749</v>
+        <v>0.03997055031813781</v>
       </c>
       <c r="C35">
-        <v>0.007619921997948298</v>
+        <v>0.002834875662481409</v>
       </c>
       <c r="D35">
-        <v>0.009918376783771181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.008768054229121844</v>
+      </c>
+      <c r="E35">
+        <v>0.01768733476666645</v>
+      </c>
+      <c r="F35">
+        <v>-0.01833740858966807</v>
+      </c>
+      <c r="G35">
+        <v>0.01102764634461279</v>
+      </c>
+      <c r="H35">
+        <v>0.01493451335853481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02187128645578697</v>
+        <v>0.02858728138870434</v>
       </c>
       <c r="C36">
-        <v>0.01724466352582174</v>
+        <v>0.01405679027805646</v>
       </c>
       <c r="D36">
-        <v>0.02150650633476711</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01508869954584386</v>
+      </c>
+      <c r="E36">
+        <v>0.04011094331772789</v>
+      </c>
+      <c r="F36">
+        <v>0.0117294484884775</v>
+      </c>
+      <c r="G36">
+        <v>0.008629437944877005</v>
+      </c>
+      <c r="H36">
+        <v>0.04147374389477684</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04040056598442471</v>
+        <v>0.04460612884420431</v>
       </c>
       <c r="C38">
-        <v>0.005269722532370765</v>
+        <v>2.681067230104721e-05</v>
       </c>
       <c r="D38">
-        <v>0.01808683383355784</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01687440749258847</v>
+      </c>
+      <c r="E38">
+        <v>0.05362129781015722</v>
+      </c>
+      <c r="F38">
+        <v>-0.01525290079313154</v>
+      </c>
+      <c r="G38">
+        <v>-0.004269883177141738</v>
+      </c>
+      <c r="H38">
+        <v>0.02947391865830295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09101284634899486</v>
+        <v>0.1023660471701973</v>
       </c>
       <c r="C39">
-        <v>0.07351390671819512</v>
+        <v>0.05236989876582671</v>
       </c>
       <c r="D39">
-        <v>0.05687732337690615</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05911433308117785</v>
+      </c>
+      <c r="E39">
+        <v>0.0003365496527388992</v>
+      </c>
+      <c r="F39">
+        <v>0.001134699497705997</v>
+      </c>
+      <c r="G39">
+        <v>-0.03588304576607609</v>
+      </c>
+      <c r="H39">
+        <v>0.04458346236813959</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07495358547491862</v>
+        <v>0.07078292635272507</v>
       </c>
       <c r="C40">
-        <v>0.04038196905195233</v>
+        <v>0.01984314647709035</v>
       </c>
       <c r="D40">
-        <v>-0.002406314688401024</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01162182451826362</v>
+      </c>
+      <c r="E40">
+        <v>0.01681794867442087</v>
+      </c>
+      <c r="F40">
+        <v>-0.05859526917384698</v>
+      </c>
+      <c r="G40">
+        <v>-0.05637361321717421</v>
+      </c>
+      <c r="H40">
+        <v>-0.1078207411431869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04118347020129214</v>
+        <v>0.04397227468522268</v>
       </c>
       <c r="C41">
-        <v>0.005169126700039437</v>
+        <v>-0.002006344923766155</v>
       </c>
       <c r="D41">
-        <v>0.03704608324151543</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03402551594858755</v>
+      </c>
+      <c r="E41">
+        <v>0.003482366251382204</v>
+      </c>
+      <c r="F41">
+        <v>-0.01459726963138886</v>
+      </c>
+      <c r="G41">
+        <v>-0.009681636820171546</v>
+      </c>
+      <c r="H41">
+        <v>0.03228092829335998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04834902930878166</v>
+        <v>0.05813249784747963</v>
       </c>
       <c r="C43">
-        <v>0.02537850274704407</v>
+        <v>0.01800454485838937</v>
       </c>
       <c r="D43">
-        <v>0.01962186503609387</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02453183299864796</v>
+      </c>
+      <c r="E43">
+        <v>0.02131159643632213</v>
+      </c>
+      <c r="F43">
+        <v>0.01129318568775174</v>
+      </c>
+      <c r="G43">
+        <v>0.01617595993075099</v>
+      </c>
+      <c r="H43">
+        <v>0.05340116637913456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09175953162545512</v>
+        <v>0.09537010732607189</v>
       </c>
       <c r="C44">
-        <v>0.09323405350866314</v>
+        <v>0.0679130191928142</v>
       </c>
       <c r="D44">
-        <v>0.07946518246764464</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05680008570608826</v>
+      </c>
+      <c r="E44">
+        <v>0.08819172627186735</v>
+      </c>
+      <c r="F44">
+        <v>0.03679290075519512</v>
+      </c>
+      <c r="G44">
+        <v>-0.03007660165280493</v>
+      </c>
+      <c r="H44">
+        <v>0.01557186980008308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0246046498746981</v>
+        <v>0.03395263966223594</v>
       </c>
       <c r="C46">
-        <v>0.01314857914189061</v>
+        <v>0.01120068890629345</v>
       </c>
       <c r="D46">
-        <v>0.02281559938258142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03265702528225497</v>
+      </c>
+      <c r="E46">
+        <v>0.03102986886601874</v>
+      </c>
+      <c r="F46">
+        <v>0.009578820223267169</v>
+      </c>
+      <c r="G46">
+        <v>0.005729593151434965</v>
+      </c>
+      <c r="H46">
+        <v>0.0377208053181861</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.02908446083986375</v>
+        <v>0.03765863847918181</v>
       </c>
       <c r="C47">
-        <v>0.02440440534991552</v>
+        <v>0.02041638051374615</v>
       </c>
       <c r="D47">
-        <v>0.01264690800990904</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0111374053799623</v>
+      </c>
+      <c r="E47">
+        <v>0.05199826672533287</v>
+      </c>
+      <c r="F47">
+        <v>0.00431077883927776</v>
+      </c>
+      <c r="G47">
+        <v>0.04346349738325566</v>
+      </c>
+      <c r="H47">
+        <v>0.02141273498865714</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03284054539757607</v>
+        <v>0.03780978891043669</v>
       </c>
       <c r="C48">
-        <v>0.01911391706872239</v>
+        <v>0.01174571095461776</v>
       </c>
       <c r="D48">
-        <v>0.02917200854914543</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01908790126449964</v>
+      </c>
+      <c r="E48">
+        <v>0.04311216629128521</v>
+      </c>
+      <c r="F48">
+        <v>-0.001747160648321124</v>
+      </c>
+      <c r="G48">
+        <v>-0.01038700768297406</v>
+      </c>
+      <c r="H48">
+        <v>0.03892253037535968</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1604974228667649</v>
+        <v>0.1882612910545899</v>
       </c>
       <c r="C49">
-        <v>0.05754492669821618</v>
+        <v>0.03456146454349788</v>
       </c>
       <c r="D49">
-        <v>-0.0118476533183122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02923822126372778</v>
+      </c>
+      <c r="E49">
+        <v>-0.1426068851022254</v>
+      </c>
+      <c r="F49">
+        <v>0.0861609946120591</v>
+      </c>
+      <c r="G49">
+        <v>0.04937722647046306</v>
+      </c>
+      <c r="H49">
+        <v>-0.2251016362432754</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03875243781606336</v>
+        <v>0.0459341060944366</v>
       </c>
       <c r="C50">
-        <v>0.02669710956416777</v>
+        <v>0.01968393294771288</v>
       </c>
       <c r="D50">
-        <v>0.03877353855033217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03100716410274503</v>
+      </c>
+      <c r="E50">
+        <v>0.05086125070623097</v>
+      </c>
+      <c r="F50">
+        <v>0.006538318188175155</v>
+      </c>
+      <c r="G50">
+        <v>0.02419464844554301</v>
+      </c>
+      <c r="H50">
+        <v>0.05858840748626647</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02660727895370954</v>
+        <v>0.0299983171336341</v>
       </c>
       <c r="C51">
-        <v>0.01074118679455947</v>
+        <v>0.00533594293637799</v>
       </c>
       <c r="D51">
-        <v>0.01395322504606136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01211529630365606</v>
+      </c>
+      <c r="E51">
+        <v>0.01428306166688729</v>
+      </c>
+      <c r="F51">
+        <v>0.01802763023981244</v>
+      </c>
+      <c r="G51">
+        <v>0.00130739205517083</v>
+      </c>
+      <c r="H51">
+        <v>-0.001964648903423611</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1513262305501595</v>
+        <v>0.1622799199191864</v>
       </c>
       <c r="C53">
-        <v>0.07815501725039428</v>
+        <v>0.0519759286466195</v>
       </c>
       <c r="D53">
-        <v>0.02231802787989933</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01851168326734163</v>
+      </c>
+      <c r="E53">
+        <v>-0.02364249180100049</v>
+      </c>
+      <c r="F53">
+        <v>0.02236764048347668</v>
+      </c>
+      <c r="G53">
+        <v>0.0273376814025033</v>
+      </c>
+      <c r="H53">
+        <v>0.1834346066655008</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05550574480796091</v>
+        <v>0.05812159720697933</v>
       </c>
       <c r="C54">
-        <v>0.02596417906681357</v>
+        <v>0.01467942834786894</v>
       </c>
       <c r="D54">
-        <v>0.02291009489245081</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01661525813883932</v>
+      </c>
+      <c r="E54">
+        <v>0.05055696245478671</v>
+      </c>
+      <c r="F54">
+        <v>0.001425170710447667</v>
+      </c>
+      <c r="G54">
+        <v>-0.01094538239753332</v>
+      </c>
+      <c r="H54">
+        <v>0.04586507061449178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09900330483476254</v>
+        <v>0.1034713231612736</v>
       </c>
       <c r="C55">
-        <v>0.05428493833361907</v>
+        <v>0.03460615912216121</v>
       </c>
       <c r="D55">
-        <v>0.02602552467815874</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02330475877929736</v>
+      </c>
+      <c r="E55">
+        <v>0.01938526972517469</v>
+      </c>
+      <c r="F55">
+        <v>0.01237029294280196</v>
+      </c>
+      <c r="G55">
+        <v>0.02023229270854386</v>
+      </c>
+      <c r="H55">
+        <v>0.1527611470962489</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1480519468204143</v>
+        <v>0.1616236374144605</v>
       </c>
       <c r="C56">
-        <v>0.09190252532052669</v>
+        <v>0.06426606283394087</v>
       </c>
       <c r="D56">
-        <v>0.02318530599067813</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02054213341779851</v>
+      </c>
+      <c r="E56">
+        <v>-0.02301736319275699</v>
+      </c>
+      <c r="F56">
+        <v>0.03549557470302107</v>
+      </c>
+      <c r="G56">
+        <v>0.03824946177793524</v>
+      </c>
+      <c r="H56">
+        <v>0.1793426654292065</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1281579124592247</v>
+        <v>0.09954225715581524</v>
       </c>
       <c r="C58">
-        <v>0.008492264403895559</v>
+        <v>-0.03444033550454585</v>
       </c>
       <c r="D58">
-        <v>0.02533164693778672</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0394029332526954</v>
+      </c>
+      <c r="E58">
+        <v>0.1644278194303615</v>
+      </c>
+      <c r="F58">
+        <v>-0.02551051813058404</v>
+      </c>
+      <c r="G58">
+        <v>0.01910955643395352</v>
+      </c>
+      <c r="H58">
+        <v>-0.2587087000418375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1196895325002396</v>
+        <v>0.1360774308033702</v>
       </c>
       <c r="C59">
-        <v>0.07932319545204211</v>
+        <v>0.08744755312783919</v>
       </c>
       <c r="D59">
-        <v>-0.354451919524555</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3636491801079375</v>
+      </c>
+      <c r="E59">
+        <v>0.02468122700089585</v>
+      </c>
+      <c r="F59">
+        <v>0.02037688408213833</v>
+      </c>
+      <c r="G59">
+        <v>0.02495753214470267</v>
+      </c>
+      <c r="H59">
+        <v>-0.001210121152294183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2015857690554675</v>
+        <v>0.2323466794241647</v>
       </c>
       <c r="C60">
-        <v>0.1021266662424487</v>
+        <v>0.06900221019596769</v>
       </c>
       <c r="D60">
-        <v>0.01666786650905573</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04329476700079195</v>
+      </c>
+      <c r="E60">
+        <v>-0.08997912902370711</v>
+      </c>
+      <c r="F60">
+        <v>0.07234122165702957</v>
+      </c>
+      <c r="G60">
+        <v>-0.02716716554197825</v>
+      </c>
+      <c r="H60">
+        <v>-0.144917697475316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08039598155726865</v>
+        <v>0.08900269469083286</v>
       </c>
       <c r="C61">
-        <v>0.05212699901024247</v>
+        <v>0.03724168475057631</v>
       </c>
       <c r="D61">
-        <v>0.04329077586228978</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04057026694759232</v>
+      </c>
+      <c r="E61">
+        <v>-0.001515007992429676</v>
+      </c>
+      <c r="F61">
+        <v>0.001236026079342118</v>
+      </c>
+      <c r="G61">
+        <v>0.0003213071017048026</v>
+      </c>
+      <c r="H61">
+        <v>0.06104483840131841</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1283919099175738</v>
+        <v>0.1390253199789905</v>
       </c>
       <c r="C62">
-        <v>0.06432507711101017</v>
+        <v>0.03937737350633697</v>
       </c>
       <c r="D62">
-        <v>0.02911960905885705</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.03251119477809977</v>
+      </c>
+      <c r="E62">
+        <v>-0.06000239388198744</v>
+      </c>
+      <c r="F62">
+        <v>0.01973990456939753</v>
+      </c>
+      <c r="G62">
+        <v>-0.004465174732087605</v>
+      </c>
+      <c r="H62">
+        <v>0.1999008665463771</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05115633622428936</v>
+        <v>0.05089206264006185</v>
       </c>
       <c r="C63">
-        <v>0.02465836300186523</v>
+        <v>0.01328203601690316</v>
       </c>
       <c r="D63">
-        <v>0.0214513350329957</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02003586157812482</v>
+      </c>
+      <c r="E63">
+        <v>0.04889141135670381</v>
+      </c>
+      <c r="F63">
+        <v>-0.01709976601539341</v>
+      </c>
+      <c r="G63">
+        <v>-0.02028376551319876</v>
+      </c>
+      <c r="H63">
+        <v>0.05428289386857893</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1006075051521621</v>
+        <v>0.1065421253642311</v>
       </c>
       <c r="C64">
-        <v>0.03171442844974478</v>
+        <v>0.01456628769302462</v>
       </c>
       <c r="D64">
-        <v>0.04914514516622568</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03478776583646267</v>
+      </c>
+      <c r="E64">
+        <v>0.03887684048946732</v>
+      </c>
+      <c r="F64">
+        <v>0.03609940007484187</v>
+      </c>
+      <c r="G64">
+        <v>-0.04732647999664666</v>
+      </c>
+      <c r="H64">
+        <v>0.04523200267702484</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1231799036458843</v>
+        <v>0.1261479046825594</v>
       </c>
       <c r="C65">
-        <v>0.0615844693064558</v>
+        <v>0.03921816416974669</v>
       </c>
       <c r="D65">
-        <v>-0.01502032071512945</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.007049428023335929</v>
+      </c>
+      <c r="E65">
+        <v>0.008078755479936393</v>
+      </c>
+      <c r="F65">
+        <v>0.05033842796099639</v>
+      </c>
+      <c r="G65">
+        <v>-0.06222507909264079</v>
+      </c>
+      <c r="H65">
+        <v>-0.150654992092792</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1447983962982982</v>
+        <v>0.1548313849991911</v>
       </c>
       <c r="C66">
-        <v>0.07728234949534263</v>
+        <v>0.04793686105878246</v>
       </c>
       <c r="D66">
-        <v>0.112467042913503</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09456039829038436</v>
+      </c>
+      <c r="E66">
+        <v>-0.02809243743684269</v>
+      </c>
+      <c r="F66">
+        <v>0.0162787996859615</v>
+      </c>
+      <c r="G66">
+        <v>-0.04496072053855779</v>
+      </c>
+      <c r="H66">
+        <v>0.1192367237209643</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07283883897544094</v>
+        <v>0.08441073761937831</v>
       </c>
       <c r="C67">
-        <v>0.01504481830522198</v>
+        <v>0.005944008959276107</v>
       </c>
       <c r="D67">
-        <v>0.02269586107116308</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02980040358860395</v>
+      </c>
+      <c r="E67">
+        <v>0.02487532728823766</v>
+      </c>
+      <c r="F67">
+        <v>0.01742594782109241</v>
+      </c>
+      <c r="G67">
+        <v>0.01488763980755018</v>
+      </c>
+      <c r="H67">
+        <v>0.03336590437094398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0579132113651481</v>
+        <v>0.05644922049733954</v>
       </c>
       <c r="C68">
-        <v>0.05066641312304848</v>
+        <v>0.05932392818342351</v>
       </c>
       <c r="D68">
-        <v>-0.253224726922896</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2696496141447475</v>
+      </c>
+      <c r="E68">
+        <v>0.03376475275997365</v>
+      </c>
+      <c r="F68">
+        <v>0.01403609568903959</v>
+      </c>
+      <c r="G68">
+        <v>0.01696994130962768</v>
+      </c>
+      <c r="H68">
+        <v>0.002815982994083932</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05120998656499196</v>
+        <v>0.05280370282043555</v>
       </c>
       <c r="C69">
-        <v>0.01792422732628204</v>
+        <v>0.006703670494760246</v>
       </c>
       <c r="D69">
-        <v>0.01919136672580455</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01526997302324704</v>
+      </c>
+      <c r="E69">
+        <v>0.02362973742969506</v>
+      </c>
+      <c r="F69">
+        <v>-0.009737630066411599</v>
+      </c>
+      <c r="G69">
+        <v>0.02127682593246366</v>
+      </c>
+      <c r="H69">
+        <v>0.0479265567187222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.00381724297799473</v>
+        <v>0.02676594670477835</v>
       </c>
       <c r="C70">
-        <v>-0.005443516382128328</v>
+        <v>-5.17810110128309e-05</v>
       </c>
       <c r="D70">
-        <v>0.002158387431424791</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.006896551879466513</v>
+      </c>
+      <c r="E70">
+        <v>-0.01880981366538372</v>
+      </c>
+      <c r="F70">
+        <v>0.01687692589587384</v>
+      </c>
+      <c r="G70">
+        <v>0.02762384750689505</v>
+      </c>
+      <c r="H70">
+        <v>-0.0283715422647657</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05829585409072637</v>
+        <v>0.05917886121149567</v>
       </c>
       <c r="C71">
-        <v>0.05027797743070153</v>
+        <v>0.06285685412037034</v>
       </c>
       <c r="D71">
-        <v>-0.2929115051971759</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2960447516030464</v>
+      </c>
+      <c r="E71">
+        <v>0.03297262029545293</v>
+      </c>
+      <c r="F71">
+        <v>0.04112273117715872</v>
+      </c>
+      <c r="G71">
+        <v>0.004205083800884213</v>
+      </c>
+      <c r="H71">
+        <v>0.01071182696956754</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1422883470669319</v>
+        <v>0.1461927709929121</v>
       </c>
       <c r="C72">
-        <v>0.06580499348265766</v>
+        <v>0.03597549975990278</v>
       </c>
       <c r="D72">
-        <v>-0.006682124946348221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008155332293300425</v>
+      </c>
+      <c r="E72">
+        <v>-0.1155375957596007</v>
+      </c>
+      <c r="F72">
+        <v>-0.1531201098624026</v>
+      </c>
+      <c r="G72">
+        <v>-0.1217217664585525</v>
+      </c>
+      <c r="H72">
+        <v>0.01701800716386702</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2749069950852079</v>
+        <v>0.2873327536612993</v>
       </c>
       <c r="C73">
-        <v>0.1093702063708774</v>
+        <v>0.04540184866750466</v>
       </c>
       <c r="D73">
-        <v>0.05108839984409581</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09910584041014871</v>
+      </c>
+      <c r="E73">
+        <v>-0.2065893712865003</v>
+      </c>
+      <c r="F73">
+        <v>0.132140093063196</v>
+      </c>
+      <c r="G73">
+        <v>0.1310388836870722</v>
+      </c>
+      <c r="H73">
+        <v>-0.4865413811087984</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07863103254229223</v>
+        <v>0.09100983126467238</v>
       </c>
       <c r="C74">
-        <v>0.07675646505093336</v>
+        <v>0.06027709003621574</v>
       </c>
       <c r="D74">
-        <v>0.01374557163169406</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02887723950298941</v>
+      </c>
+      <c r="E74">
+        <v>-0.00569306814011596</v>
+      </c>
+      <c r="F74">
+        <v>0.0007689781057949599</v>
+      </c>
+      <c r="G74">
+        <v>0.05800767197272256</v>
+      </c>
+      <c r="H74">
+        <v>0.1165517013102002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09598070438539494</v>
+        <v>0.1010037207994859</v>
       </c>
       <c r="C75">
-        <v>0.05314973354634676</v>
+        <v>0.02847575041030237</v>
       </c>
       <c r="D75">
-        <v>0.01024481982256039</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.01512575031618821</v>
+      </c>
+      <c r="E75">
+        <v>0.01117796518402819</v>
+      </c>
+      <c r="F75">
+        <v>0.02196407796481232</v>
+      </c>
+      <c r="G75">
+        <v>0.02709445513307979</v>
+      </c>
+      <c r="H75">
+        <v>0.1154021700178955</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1290496308445494</v>
+        <v>0.1401226693623551</v>
       </c>
       <c r="C76">
-        <v>0.08312877533521197</v>
+        <v>0.05745882952621633</v>
       </c>
       <c r="D76">
-        <v>0.05360033240701228</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04967243711980487</v>
+      </c>
+      <c r="E76">
+        <v>0.03168475476571334</v>
+      </c>
+      <c r="F76">
+        <v>0.04308537740860147</v>
+      </c>
+      <c r="G76">
+        <v>0.02259011377651352</v>
+      </c>
+      <c r="H76">
+        <v>0.2036249467645705</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.114972179111823</v>
+        <v>0.1085406538163864</v>
       </c>
       <c r="C77">
-        <v>0.01935402534920484</v>
+        <v>-0.008538561418062566</v>
       </c>
       <c r="D77">
-        <v>0.05817718550849928</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.02143402620590569</v>
+      </c>
+      <c r="E77">
+        <v>0.05106664150084227</v>
+      </c>
+      <c r="F77">
+        <v>0.1022405702754578</v>
+      </c>
+      <c r="G77">
+        <v>-0.8911191841174856</v>
+      </c>
+      <c r="H77">
+        <v>-0.06472412728756739</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1019467444269275</v>
+        <v>0.1420937498691222</v>
       </c>
       <c r="C78">
-        <v>0.04192536439690347</v>
+        <v>0.03643138769324659</v>
       </c>
       <c r="D78">
-        <v>0.08210711687116864</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08033302515703869</v>
+      </c>
+      <c r="E78">
+        <v>0.06426474874369914</v>
+      </c>
+      <c r="F78">
+        <v>0.03853566608593585</v>
+      </c>
+      <c r="G78">
+        <v>-0.0850576698642863</v>
+      </c>
+      <c r="H78">
+        <v>-0.0482207384945826</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1462614586221589</v>
+        <v>0.1514956909165787</v>
       </c>
       <c r="C79">
-        <v>0.07631781767603603</v>
+        <v>0.04471438838076691</v>
       </c>
       <c r="D79">
-        <v>0.03055446533682182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02694222369365564</v>
+      </c>
+      <c r="E79">
+        <v>-0.01510660106587969</v>
+      </c>
+      <c r="F79">
+        <v>0.02024837772529779</v>
+      </c>
+      <c r="G79">
+        <v>0.04315129316252917</v>
+      </c>
+      <c r="H79">
+        <v>0.1763277428519656</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04449336164986512</v>
+        <v>0.04286531282658086</v>
       </c>
       <c r="C80">
-        <v>0.01737431148814709</v>
+        <v>0.008322635075102183</v>
       </c>
       <c r="D80">
-        <v>0.02547576150671421</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01688440349952559</v>
+      </c>
+      <c r="E80">
+        <v>-0.01542621279667539</v>
+      </c>
+      <c r="F80">
+        <v>0.0007355864947849643</v>
+      </c>
+      <c r="G80">
+        <v>0.02938582984328835</v>
+      </c>
+      <c r="H80">
+        <v>0.02953022785233264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1156324835354971</v>
+        <v>0.1207744383078699</v>
       </c>
       <c r="C81">
-        <v>0.06398363179400317</v>
+        <v>0.03854168920587924</v>
       </c>
       <c r="D81">
-        <v>0.03196492954290771</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02269019909494706</v>
+      </c>
+      <c r="E81">
+        <v>0.02172492729238959</v>
+      </c>
+      <c r="F81">
+        <v>0.0139566068496685</v>
+      </c>
+      <c r="G81">
+        <v>0.06447733685774085</v>
+      </c>
+      <c r="H81">
+        <v>0.1469680788206543</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1296595998496168</v>
+        <v>0.1315245916499246</v>
       </c>
       <c r="C82">
-        <v>0.07804246719926751</v>
+        <v>0.05078549995275627</v>
       </c>
       <c r="D82">
-        <v>0.01680759840332883</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.02574939123022216</v>
+      </c>
+      <c r="E82">
+        <v>-0.005028971871543333</v>
+      </c>
+      <c r="F82">
+        <v>0.05711463012985019</v>
+      </c>
+      <c r="G82">
+        <v>0.05741861760297715</v>
+      </c>
+      <c r="H82">
+        <v>0.220789250080179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07487992439749915</v>
+        <v>0.08642768271558528</v>
       </c>
       <c r="C83">
-        <v>-0.01349453337541507</v>
+        <v>-0.02619789352632509</v>
       </c>
       <c r="D83">
-        <v>0.02578739207697548</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03226415788037492</v>
+      </c>
+      <c r="E83">
+        <v>0.02629315560364538</v>
+      </c>
+      <c r="F83">
+        <v>0.05257367925700828</v>
+      </c>
+      <c r="G83">
+        <v>0.08373511558149589</v>
+      </c>
+      <c r="H83">
+        <v>-0.06518883304119184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02869173248615964</v>
+        <v>0.03726555210585905</v>
       </c>
       <c r="C84">
-        <v>0.02813210824456209</v>
+        <v>0.02303644421566899</v>
       </c>
       <c r="D84">
-        <v>0.03145614583787164</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03132932177355472</v>
+      </c>
+      <c r="E84">
+        <v>0.02885916359542055</v>
+      </c>
+      <c r="F84">
+        <v>-0.05709791935183981</v>
+      </c>
+      <c r="G84">
+        <v>0.06661553842957949</v>
+      </c>
+      <c r="H84">
+        <v>-0.005229706873039242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1195405410844088</v>
+        <v>0.1217317160856811</v>
       </c>
       <c r="C85">
-        <v>0.05537525106553819</v>
+        <v>0.02893575554676358</v>
       </c>
       <c r="D85">
-        <v>0.02085911942875753</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02059205479826679</v>
+      </c>
+      <c r="E85">
+        <v>0.02170191954050892</v>
+      </c>
+      <c r="F85">
+        <v>0.0374532517849287</v>
+      </c>
+      <c r="G85">
+        <v>0.034137099470318</v>
+      </c>
+      <c r="H85">
+        <v>0.1581061377949434</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05075883185376463</v>
+        <v>0.05838099973207874</v>
       </c>
       <c r="C86">
-        <v>0.02806158392080365</v>
+        <v>0.01844626879462803</v>
       </c>
       <c r="D86">
-        <v>0.02842120003782029</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0278736609455626</v>
+      </c>
+      <c r="E86">
+        <v>0.07439442496456886</v>
+      </c>
+      <c r="F86">
+        <v>0.02074264380960189</v>
+      </c>
+      <c r="G86">
+        <v>0.02397906648174023</v>
+      </c>
+      <c r="H86">
+        <v>-0.01728947352525179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1180824217106383</v>
+        <v>0.1217930225131301</v>
       </c>
       <c r="C87">
-        <v>0.07148535467780885</v>
+        <v>0.03833034031743094</v>
       </c>
       <c r="D87">
-        <v>0.0747698427784827</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07101466073021714</v>
+      </c>
+      <c r="E87">
+        <v>0.02609351991147027</v>
+      </c>
+      <c r="F87">
+        <v>-0.000964094010391296</v>
+      </c>
+      <c r="G87">
+        <v>-0.1333220455055063</v>
+      </c>
+      <c r="H87">
+        <v>-0.04279311085705835</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0525650450132339</v>
+        <v>0.06000512429603151</v>
       </c>
       <c r="C88">
-        <v>0.02934052311698887</v>
+        <v>0.01972128614873853</v>
       </c>
       <c r="D88">
-        <v>0.02061871317288412</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03273700785243936</v>
+      </c>
+      <c r="E88">
+        <v>0.02239182316015872</v>
+      </c>
+      <c r="F88">
+        <v>0.003941899000695987</v>
+      </c>
+      <c r="G88">
+        <v>-0.00552274669582236</v>
+      </c>
+      <c r="H88">
+        <v>0.05344907183896089</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08603369590144244</v>
+        <v>0.09415730549955625</v>
       </c>
       <c r="C89">
-        <v>0.06847185982562808</v>
+        <v>0.08176352927187025</v>
       </c>
       <c r="D89">
-        <v>-0.319617491688469</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3467619545075568</v>
+      </c>
+      <c r="E89">
+        <v>0.07400914524850892</v>
+      </c>
+      <c r="F89">
+        <v>0.07112490303090466</v>
+      </c>
+      <c r="G89">
+        <v>0.02662064188311728</v>
+      </c>
+      <c r="H89">
+        <v>0.002433191225373187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07417774838047803</v>
+        <v>0.07828364786179288</v>
       </c>
       <c r="C90">
-        <v>0.06031044698908053</v>
+        <v>0.06993044106411335</v>
       </c>
       <c r="D90">
-        <v>-0.320496746073986</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.3074303844484006</v>
+      </c>
+      <c r="E90">
+        <v>0.05708469329043777</v>
+      </c>
+      <c r="F90">
+        <v>-0.002001650507988949</v>
+      </c>
+      <c r="G90">
+        <v>0.002904635922778383</v>
+      </c>
+      <c r="H90">
+        <v>0.001671860493365176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08671495370790293</v>
+        <v>0.09029574452901262</v>
       </c>
       <c r="C91">
-        <v>0.05611507236105484</v>
+        <v>0.03404327116978548</v>
       </c>
       <c r="D91">
-        <v>0.03239944093520835</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03162789560181506</v>
+      </c>
+      <c r="E91">
+        <v>0.01391647994002806</v>
+      </c>
+      <c r="F91">
+        <v>0.005515250140647627</v>
+      </c>
+      <c r="G91">
+        <v>0.05539038278064207</v>
+      </c>
+      <c r="H91">
+        <v>0.08069733651415813</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.0745773003643623</v>
+        <v>0.07831851163628663</v>
       </c>
       <c r="C92">
-        <v>0.07408941896717064</v>
+        <v>0.08547912227181659</v>
       </c>
       <c r="D92">
-        <v>-0.3442385680836674</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3469580325235695</v>
+      </c>
+      <c r="E92">
+        <v>0.04131203802850394</v>
+      </c>
+      <c r="F92">
+        <v>0.04412868135178843</v>
+      </c>
+      <c r="G92">
+        <v>-0.01518739764679651</v>
+      </c>
+      <c r="H92">
+        <v>0.01687086375980749</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06505730096845545</v>
+        <v>0.07459600169718426</v>
       </c>
       <c r="C93">
-        <v>0.06528667613589394</v>
+        <v>0.08067930817797654</v>
       </c>
       <c r="D93">
-        <v>-0.3116381801925073</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.3045132793328713</v>
+      </c>
+      <c r="E93">
+        <v>0.03648776797172224</v>
+      </c>
+      <c r="F93">
+        <v>0.03898277293612527</v>
+      </c>
+      <c r="G93">
+        <v>-0.01661253999513257</v>
+      </c>
+      <c r="H93">
+        <v>-0.01324733063836849</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1322624671485575</v>
+        <v>0.1268006750527406</v>
       </c>
       <c r="C94">
-        <v>0.05444812179448237</v>
+        <v>0.02014788017287798</v>
       </c>
       <c r="D94">
-        <v>0.04754464662178533</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04926060363352807</v>
+      </c>
+      <c r="E94">
+        <v>-0.003108707164500125</v>
+      </c>
+      <c r="F94">
+        <v>0.02240706374108345</v>
+      </c>
+      <c r="G94">
+        <v>0.06221071554922404</v>
+      </c>
+      <c r="H94">
+        <v>0.09955748828881163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1195680416532737</v>
+        <v>0.1263035091975152</v>
       </c>
       <c r="C95">
-        <v>0.03163115129659775</v>
+        <v>0.003574042009459313</v>
       </c>
       <c r="D95">
-        <v>0.06567546193862274</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.07230216040409453</v>
+      </c>
+      <c r="E95">
+        <v>0.01818092467318316</v>
+      </c>
+      <c r="F95">
+        <v>0.03335235339652538</v>
+      </c>
+      <c r="G95">
+        <v>-0.01036042655555628</v>
+      </c>
+      <c r="H95">
+        <v>-0.04934824169345085</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2211149618455785</v>
+        <v>0.2088968124699138</v>
       </c>
       <c r="C97">
-        <v>0.0510996358577633</v>
+        <v>0.0003224755021217534</v>
       </c>
       <c r="D97">
-        <v>-0.1168833574976675</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.08921202442779366</v>
+      </c>
+      <c r="E97">
+        <v>-0.3487912832375052</v>
+      </c>
+      <c r="F97">
+        <v>-0.8570617173637224</v>
+      </c>
+      <c r="G97">
+        <v>-0.07021281666916725</v>
+      </c>
+      <c r="H97">
+        <v>0.009839875007146391</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.243381507963331</v>
+        <v>0.2763907459058733</v>
       </c>
       <c r="C98">
-        <v>0.07169749251017103</v>
+        <v>0.03248004851252302</v>
       </c>
       <c r="D98">
-        <v>0.04297192868889222</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05824122442958694</v>
+      </c>
+      <c r="E98">
+        <v>-0.1758724976562537</v>
+      </c>
+      <c r="F98">
+        <v>0.1028210855012103</v>
+      </c>
+      <c r="G98">
+        <v>0.2290251447103043</v>
+      </c>
+      <c r="H98">
+        <v>-0.2376807779537399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4468931631082042</v>
+        <v>0.2861176980269337</v>
       </c>
       <c r="C99">
-        <v>-0.8783508197761215</v>
+        <v>-0.9328787138470765</v>
       </c>
       <c r="D99">
-        <v>-0.05155161567889167</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.1363657692623371</v>
+      </c>
+      <c r="E99">
+        <v>0.07391413576814281</v>
+      </c>
+      <c r="F99">
+        <v>0.0453036273102216</v>
+      </c>
+      <c r="G99">
+        <v>0.02198698234338288</v>
+      </c>
+      <c r="H99">
+        <v>0.06507076998318671</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0407790382014479</v>
+        <v>0.04887270486749499</v>
       </c>
       <c r="C101">
-        <v>0.03037627116083747</v>
+        <v>0.0256932961667776</v>
       </c>
       <c r="D101">
-        <v>0.006007506258688625</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.00658547298121059</v>
+      </c>
+      <c r="E101">
+        <v>0.05711480575185933</v>
+      </c>
+      <c r="F101">
+        <v>-0.002558193196767432</v>
+      </c>
+      <c r="G101">
+        <v>0.01040336282719573</v>
+      </c>
+      <c r="H101">
+        <v>0.07283308608066633</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
